--- a/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書(CommonServlet.java).xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/Servlet/クラス仕様書(CommonServlet.java).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC31AC8-7E08-4C3C-8DB0-D168C7E2C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00906127-C475-4938-8F9B-2DC65810225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>業務</t>
   </si>
@@ -316,6 +316,10 @@
     <rPh sb="8" eb="9">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected abstract</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,6 +672,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -680,29 +711,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -725,61 +780,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1099,7 @@
   <dimension ref="A1:IY25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+      <selection activeCell="S21" sqref="S21:Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1104,85 +1108,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="47" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="47" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="47" t="s">
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="48" t="s">
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="47" t="s">
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="50">
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="21">
         <v>45922</v>
       </c>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1382,82 +1386,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="47" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48" t="str">
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="str">
         <f>G6</f>
         <v>CommonServlet</v>
       </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="47" t="s">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="48" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="47" t="s">
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="50">
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="21">
         <v>45925</v>
       </c>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1657,410 +1661,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="41"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="17"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="41"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="17"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="39" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="41"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="17"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="39" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="41"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="17"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="39" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="40"/>
-      <c r="BC8" s="40"/>
-      <c r="BD8" s="40"/>
-      <c r="BE8" s="40"/>
-      <c r="BF8" s="40"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="40"/>
-      <c r="BI8" s="41"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="17"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="39" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="42" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="43" t="s">
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2072,169 +2076,169 @@
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="14" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="25" t="s">
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25" t="s">
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="24" t="s">
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="15"/>
-      <c r="DI12" s="14" t="s">
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="24"/>
+      <c r="DI12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="DJ12" s="14"/>
-      <c r="DK12" s="14"/>
-      <c r="DL12" s="14"/>
-      <c r="DM12" s="14"/>
-      <c r="DN12" s="14"/>
-      <c r="DO12" s="14"/>
-      <c r="DP12" s="15"/>
+      <c r="DJ12" s="23"/>
+      <c r="DK12" s="23"/>
+      <c r="DL12" s="23"/>
+      <c r="DM12" s="23"/>
+      <c r="DN12" s="23"/>
+      <c r="DO12" s="23"/>
+      <c r="DP12" s="24"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="18" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="46" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46" t="s">
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="45" t="s">
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="19"/>
-      <c r="DI13" s="16"/>
-      <c r="DJ13" s="16"/>
-      <c r="DK13" s="16"/>
-      <c r="DL13" s="16"/>
-      <c r="DM13" s="16"/>
-      <c r="DN13" s="16"/>
-      <c r="DO13" s="16"/>
-      <c r="DP13" s="17"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="33"/>
+      <c r="DI13" s="25"/>
+      <c r="DJ13" s="25"/>
+      <c r="DK13" s="25"/>
+      <c r="DL13" s="25"/>
+      <c r="DM13" s="25"/>
+      <c r="DN13" s="25"/>
+      <c r="DO13" s="25"/>
+      <c r="DP13" s="26"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -2245,151 +2249,151 @@
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="14" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="33" t="s">
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="23" t="s">
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="14" t="s">
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="15"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="24"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="18" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="36" t="s">
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="20" t="s">
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="18" t="s">
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="18"/>
-      <c r="BF17" s="18"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="19"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="33"/>
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -2400,155 +2404,155 @@
       <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="14" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="25" t="s">
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25" t="s">
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="23" t="s">
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
-      <c r="AV20" s="23"/>
-      <c r="AW20" s="23"/>
-      <c r="AX20" s="23"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="14" t="s">
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="15"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="24"/>
     </row>
     <row r="21" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="22" t="s">
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22" t="s">
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="20" t="s">
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="16" t="s">
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="16"/>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="16"/>
-      <c r="BG21" s="16"/>
-      <c r="BH21" s="17"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="26"/>
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -2818,74 +2822,74 @@
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25" t="s">
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="33" t="s">
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="14" t="s">
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="15"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="24"/>
       <c r="BI24" s="10"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -3091,74 +3095,74 @@
       <c r="B25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="26" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="29" t="s">
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="30" t="s">
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="32"/>
-      <c r="BA25" s="18" t="s">
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="18"/>
-      <c r="BD25" s="18"/>
-      <c r="BE25" s="18"/>
-      <c r="BF25" s="18"/>
-      <c r="BG25" s="18"/>
-      <c r="BH25" s="19"/>
+      <c r="BB25" s="32"/>
+      <c r="BC25" s="32"/>
+      <c r="BD25" s="32"/>
+      <c r="BE25" s="32"/>
+      <c r="BF25" s="32"/>
+      <c r="BG25" s="32"/>
+      <c r="BH25" s="33"/>
       <c r="BI25" s="10"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="1"/>
@@ -3361,6 +3365,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AA25:AZ25"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI13:DP13"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AI12:AZ12"/>
+    <mergeCell ref="AI13:AZ13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A4:F4"/>
@@ -3377,71 +3446,6 @@
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI13:DP13"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AI12:AZ12"/>
-    <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="AA25:AZ25"/>
-    <mergeCell ref="AA24:AZ24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="AG20:AZ20"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -3589,18 +3593,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3622,18 +3626,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>